--- a/ProyectoMaritima/AppMaritima/static/AppMetricas/images/trimestral/2024/MAM/aciertos_MAM.xlsx
+++ b/ProyectoMaritima/AppMaritima/static/AppMetricas/images/trimestral/2024/MAM/aciertos_MAM.xlsx
@@ -462,19 +462,19 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>20</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>20</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,36 +482,39 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>14.53900709219858</v>
+        <v>17.3758865248227</v>
       </c>
       <c r="C3">
-        <v>25.88652482269503</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="D3">
-        <v>13.82978723404255</v>
+        <v>15.95744680851064</v>
       </c>
       <c r="E3">
-        <v>6.382978723404255</v>
+        <v>5.673758865248227</v>
       </c>
       <c r="F3">
-        <v>1.418439716312057</v>
+        <v>1.773049645390071</v>
       </c>
       <c r="G3">
-        <v>39.71631205673759</v>
+        <v>47.87234042553192</v>
       </c>
       <c r="H3">
         <v>282</v>
       </c>
       <c r="I3">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4">
+        <v>3.125</v>
+      </c>
       <c r="C4">
-        <v>25</v>
+        <v>28.125</v>
       </c>
       <c r="D4">
         <v>34.375</v>
@@ -520,13 +523,13 @@
         <v>6.25</v>
       </c>
       <c r="G4">
-        <v>59.375</v>
+        <v>62.5</v>
       </c>
       <c r="H4">
         <v>32</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -534,28 +537,28 @@
         <v>12</v>
       </c>
       <c r="B5">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="C5">
+        <v>48.29545454545455</v>
+      </c>
+      <c r="D5">
+        <v>17.04545454545454</v>
+      </c>
+      <c r="E5">
         <v>3.977272727272727</v>
-      </c>
-      <c r="C5">
-        <v>32.38636363636363</v>
-      </c>
-      <c r="D5">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="E5">
-        <v>3.409090909090909</v>
       </c>
       <c r="F5">
         <v>0.5681818181818182</v>
       </c>
       <c r="G5">
-        <v>50.56818181818181</v>
+        <v>65.34090909090909</v>
       </c>
       <c r="H5">
         <v>176</v>
       </c>
       <c r="I5">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -563,28 +566,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>4.878048780487805</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C6">
-        <v>23.17073170731707</v>
+        <v>24.84848484848485</v>
       </c>
       <c r="D6">
-        <v>18.29268292682927</v>
+        <v>17.57575757575757</v>
       </c>
       <c r="E6">
-        <v>7.926829268292683</v>
+        <v>10.3030303030303</v>
       </c>
       <c r="F6">
-        <v>4.878048780487805</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="G6">
-        <v>41.46341463414635</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="H6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -592,28 +595,25 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.9389671361502347</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="C7">
-        <v>35.68075117370892</v>
+        <v>46.94835680751174</v>
       </c>
       <c r="D7">
         <v>19.71830985915493</v>
       </c>
       <c r="E7">
-        <v>5.633802816901409</v>
-      </c>
-      <c r="F7">
-        <v>0.4694835680751174</v>
+        <v>6.103286384976526</v>
       </c>
       <c r="G7">
-        <v>55.39906103286385</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H7">
         <v>213</v>
       </c>
       <c r="I7">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -624,25 +624,22 @@
         <v>3.333333333333333</v>
       </c>
       <c r="C8">
-        <v>18.88888888888889</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="D8">
-        <v>18.88888888888889</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>12.22222222222222</v>
-      </c>
-      <c r="F8">
-        <v>1.111111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G8">
-        <v>37.77777777777778</v>
+        <v>58.88888888888889</v>
       </c>
       <c r="H8">
         <v>90</v>
       </c>
       <c r="I8">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
